--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -464,16 +464,16 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="10.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -578,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>2</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="G6" s="10" t="n">
         <f aca="false">IF(C6="","",C6/B6)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -578,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>2</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="G6" s="10" t="n">
         <f aca="false">IF(C6="","",C6/B6)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -464,16 +464,16 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="10.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -464,16 +464,16 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="10.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -578,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>2</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="G6" s="10" t="n">
         <f aca="false">IF(C6="","",C6/B6)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="8" t="n">
         <v>2</v>
@@ -615,7 +615,7 @@
       </c>
       <c r="G7" s="10" t="n">
         <f aca="false">IF(C7="","",C7/B7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t xml:space="preserve">Ranking de Jugadores del SEGHOS (  Temporada 2025/26)</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tercera Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio Sanz</t>
   </si>
   <si>
     <t xml:space="preserve">División de Honor Territorial</t>
@@ -464,7 +467,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,15 +656,27 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="16" t="str">
+      <c r="A10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16" t="n">
         <f aca="false">IF(C10="","",C10/B10)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,7 +717,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -808,7 +823,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -837,7 +852,7 @@
         <v>7</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t xml:space="preserve">Ranking de Jugadores del SEGHOS (  Temporada 2025/26)</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tercera Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio Sanz</t>
   </si>
   <si>
     <t xml:space="preserve">División de Honor Territorial</t>
@@ -467,7 +464,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -581,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>2</v>
@@ -594,7 +591,7 @@
       </c>
       <c r="G6" s="10" t="n">
         <f aca="false">IF(C6="","",C6/B6)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="8" t="n">
         <v>2</v>
@@ -614,11 +611,11 @@
         <v>0</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7" s="10" t="n">
         <f aca="false">IF(C7="","",C7/B7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,27 +653,15 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16" t="n">
+      <c r="A10" s="14"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="16" t="str">
         <f aca="false">IF(C10="","",C10/B10)</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,7 +702,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -823,7 +808,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -852,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="10" t="n">
         <f aca="false">IF(C5="","",C5/B5)</f>

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t xml:space="preserve">Ranking de Jugadores del SEGHOS (  Temporada 2025/26)</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tercera Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio Sanz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio García</t>
   </si>
   <si>
     <t xml:space="preserve">División de Honor Territorial</t>
@@ -464,7 +470,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,39 +659,75 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="16" t="str">
+      <c r="A10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="16" t="n">
         <f aca="false">IF(C10="","",C10/B10)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="16" t="str">
+      <c r="A11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" s="16" t="n">
         <f aca="false">IF(C11="","",C11/B11)</f>
-        <v/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="16" t="str">
+      <c r="A12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16" t="n">
         <f aca="false">IF(C12="","",C12/B12)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,7 +744,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -808,7 +850,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -837,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t xml:space="preserve">Ranking de Jugadores del SEGHOS (  Temporada 2025/26)</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">Javier Bueno</t>
   </si>
   <si>
+    <t xml:space="preserve">José Luis Cervigón</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tercera Nacional</t>
   </si>
   <si>
@@ -73,10 +76,22 @@
     <t xml:space="preserve">División de Honor Territorial</t>
   </si>
   <si>
+    <t xml:space="preserve">Julio Moragón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo Martín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauro Martín</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOBLES</t>
   </si>
   <si>
     <t xml:space="preserve">%victorias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio S/Antonio G</t>
   </si>
 </sst>
 </file>
@@ -470,12 +485,12 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.16"/>
@@ -533,23 +548,23 @@
         <v>9</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G4" s="10" t="n">
         <f aca="false">IF(C4="","",C4/B4)</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,23 +596,23 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="n">
         <v>4</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>2</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="8" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G6" s="10" t="n">
         <f aca="false">IF(C6="","",C6/B6)</f>
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,61 +640,58 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" s="16" t="n">
-        <f aca="false">IF(C10="","",C10/B10)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,138 +702,186 @@
         <v>2</v>
       </c>
       <c r="C11" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11" s="8" t="n">
         <v>4</v>
       </c>
       <c r="G11" s="16" t="n">
         <f aca="false">IF(C11="","",C11/B11)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C12" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" s="16" t="n">
         <f aca="false">IF(C12="","",C12/B12)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="16" t="str">
+      <c r="A13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="16" t="n">
         <f aca="false">IF(C13="","",C13/B13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="16" t="str">
+        <f aca="false">IF(C14="","",C14/B14)</f>
         <v/>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="E16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G16" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="22" t="str">
-        <f aca="false">IF(C16="","",C16/B16)</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="22" t="str">
+      <c r="A17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="22" t="n">
         <f aca="false">IF(C17="","",C17/B17)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="22" t="str">
+      <c r="A18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="22" t="n">
         <f aca="false">IF(C18="","",C18/B18)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="22" t="str">
+      <c r="A19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" s="22" t="n">
         <f aca="false">IF(C19="","",C19/B19)</f>
-        <v/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,64 +909,87 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="22" t="str">
+        <f aca="false">IF(C22="","",C22/B22)</f>
+        <v/>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C24" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="E24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="28" t="str">
-        <f aca="false">IF(C24="","",C24/B24)</f>
+      <c r="G24" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" s="28" t="n">
+        <f aca="false">IF(C25="","",C25/B25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="26"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="28" t="str">
+        <f aca="false">IF(C26="","",C26/B26)</f>
         <v/>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="28" t="str">
-        <f aca="false">IF(C25="","",C25/B25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -927,9 +1010,9 @@
   <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A23:G23"/>
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -658,254 +658,251 @@
       <c r="F8" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10" t="n">
+        <f aca="false">IF(C8="","",C8/B8)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="E12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G11" s="16" t="n">
-        <f aca="false">IF(C11="","",C11/B11)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" s="16" t="n">
-        <f aca="false">IF(C12="","",C12/B12)</f>
-        <v>0.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C13" s="15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F13" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G13" s="16" t="n">
         <f aca="false">IF(C13="","",C13/B13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="16" t="str">
+      <c r="A14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" s="16" t="n">
         <f aca="false">IF(C14="","",C14/B14)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" s="16" t="n">
+        <f aca="false">IF(C15="","",C15/B15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="16" t="str">
+        <f aca="false">IF(C16="","",C16/B16)</f>
         <v/>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="E18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G18" s="19" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="F17" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="22" t="n">
-        <f aca="false">IF(C17="","",C17/B17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="21" t="n">
-        <v>6</v>
-      </c>
-      <c r="F18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="22" t="n">
-        <f aca="false">IF(C18="","",C18/B18)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C19" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="8" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="22" t="n">
         <f aca="false">IF(C19="","",C19/B19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="22" t="n">
+        <f aca="false">IF(C20="","",C20/B20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="22" t="n">
+        <f aca="false">IF(C21="","",C21/B21)</f>
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="22" t="str">
-        <f aca="false">IF(C20="","",C20/B20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="22" t="str">
-        <f aca="false">IF(C21="","",C21/B21)</f>
-        <v/>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -921,77 +918,99 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="22" t="str">
+        <f aca="false">IF(C23="","",C23/B23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="22" t="str">
+        <f aca="false">IF(C24="","",C24/B24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C26" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="E26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G26" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="n">
+      <c r="B27" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8" t="n">
+      <c r="C27" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="8" t="n">
+      <c r="E27" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="G25" s="28" t="n">
-        <f aca="false">IF(C25="","",C25/B25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="28" t="str">
-        <f aca="false">IF(C26="","",C26/B26)</f>
+      <c r="G27" s="28" t="n">
+        <f aca="false">IF(C27="","",C27/B27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="26"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="28" t="str">
+        <f aca="false">IF(C28="","",C28/B28)</f>
         <v/>
       </c>
     </row>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1010,9 +1029,9 @@
   <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A25:G25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t xml:space="preserve">Ranking de Jugadores del SEGHOS (  Temporada 2025/26)</t>
   </si>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">José Luis Cervigón</t>
   </si>
   <si>
+    <t xml:space="preserve">Rodrigo Martín</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tercera Nacional</t>
   </si>
   <si>
@@ -79,10 +82,10 @@
     <t xml:space="preserve">Julio Moragón</t>
   </si>
   <si>
-    <t xml:space="preserve">Rodrigo Martín</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mauro Martín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Martín</t>
   </si>
   <si>
     <t xml:space="preserve">DOBLES</t>
@@ -485,7 +488,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -548,19 +551,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G4" s="10" t="n">
         <f aca="false">IF(C4="","",C4/B4)</f>
@@ -596,23 +599,23 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F6" s="8" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G6" s="10" t="n">
         <f aca="false">IF(C6="","",C6/B6)</f>
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,13 +667,28 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="10"/>
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <f aca="false">IF(C9="","",C9/B9)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
@@ -683,7 +701,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -717,46 +735,46 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="n">
         <v>15</v>
-      </c>
-      <c r="B13" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" s="8" t="n">
-        <v>4</v>
       </c>
       <c r="G13" s="16" t="n">
         <f aca="false">IF(C13="","",C13/B13)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G14" s="16" t="n">
         <f aca="false">IF(C14="","",C14/B14)</f>
@@ -788,20 +806,32 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="16" t="str">
+      <c r="A16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="G16" s="16" t="n">
         <f aca="false">IF(C16="","",C16/B16)</f>
-        <v/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -835,31 +865,31 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F19" s="8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19" s="22" t="n">
         <f aca="false">IF(C19="","",C19/B19)</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20" s="8" t="n">
         <v>2</v>
@@ -886,35 +916,47 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" s="21" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" s="21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G21" s="22" t="n">
         <f aca="false">IF(C21="","",C21/B21)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="22" t="n">
+        <f aca="false">IF(C22="","",C22/B22)</f>
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="22" t="str">
-        <f aca="false">IF(C22="","",C22/B22)</f>
-        <v/>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,7 +985,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -972,12 +1014,12 @@
         <v>7</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="8" t="n">
         <v>1</v>

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t xml:space="preserve">Ranking de Jugadores del SEGHOS (  Temporada 2025/26)</t>
   </si>
@@ -67,10 +67,10 @@
     <t xml:space="preserve">Rodrigo Martín</t>
   </si>
   <si>
+    <t xml:space="preserve">Antonio Sanz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tercera Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio Sanz</t>
   </si>
   <si>
     <t xml:space="preserve">Antonio García</t>
@@ -488,7 +488,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -551,10 +551,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>4</v>
@@ -567,7 +567,7 @@
       </c>
       <c r="G4" s="10" t="n">
         <f aca="false">IF(C4="","",C4/B4)</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,10 +599,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>5</v>
@@ -615,7 +615,7 @@
       </c>
       <c r="G6" s="10" t="n">
         <f aca="false">IF(C6="","",C6/B6)</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,17 +691,32 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <f aca="false">IF(C10="","",C10/B10)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -735,7 +750,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>6</v>

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t xml:space="preserve">Ranking de Jugadores del SEGHOS (  Temporada 2025/26)</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">Antonio Sanz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Montesinos</t>
   </si>
   <si>
     <t xml:space="preserve">Tercera Nacional</t>
@@ -488,7 +491,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -551,23 +554,23 @@
         <v>9</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G4" s="10" t="n">
         <f aca="false">IF(C4="","",C4/B4)</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,23 +602,23 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>5</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F6" s="8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" s="10" t="n">
         <f aca="false">IF(C6="","",C6/B6)</f>
-        <v>0.5</v>
+        <v>0.583333333333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,66 +718,66 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="B11" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <f aca="false">IF(C11="","",C11/B11)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="F13" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="G13" s="16" t="n">
-        <f aca="false">IF(C13="","",C13/B13)</f>
-        <v>0.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>6</v>
@@ -786,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F14" s="8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G14" s="16" t="n">
         <f aca="false">IF(C14="","",C14/B14)</f>
@@ -798,156 +801,156 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B15" s="8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C15" s="15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F15" s="8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G15" s="16" t="n">
         <f aca="false">IF(C15="","",C15/B15)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>4</v>
       </c>
       <c r="C16" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G16" s="16" t="n">
         <f aca="false">IF(C16="","",C16/B16)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="A17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="G17" s="16" t="n">
+        <f aca="false">IF(C17="","",C17/B17)</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="19" t="s">
+      <c r="A18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="E19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G19" s="19" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="21" t="n">
-        <v>10</v>
-      </c>
-      <c r="F19" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G19" s="22" t="n">
-        <f aca="false">IF(C19="","",C19/B19)</f>
-        <v>0.75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B20" s="8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20" s="21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" s="8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="21" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F20" s="8" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G20" s="22" t="n">
         <f aca="false">IF(C20="","",C20/B20)</f>
-        <v>1</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="8" t="n">
         <v>3</v>
       </c>
       <c r="E21" s="21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F21" s="8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="22" t="n">
         <f aca="false">IF(C21="","",C21/B21)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,35 +958,47 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C22" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22" s="21" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F22" s="8" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G22" s="22" t="n">
         <f aca="false">IF(C22="","",C22/B22)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" s="22" t="n">
+        <f aca="false">IF(C23="","",C23/B23)</f>
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="22" t="str">
-        <f aca="false">IF(C23="","",C23/B23)</f>
-        <v/>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,76 +1014,87 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="22" t="str">
+        <f aca="false">IF(C25="","",C25/B25)</f>
+        <v/>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="25" t="s">
+      <c r="A26" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="E27" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26" t="s">
+      <c r="G27" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="8" t="n">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="8" t="n">
+      <c r="C28" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G27" s="28" t="n">
-        <f aca="false">IF(C27="","",C27/B27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="28" t="str">
+      <c r="E28" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" s="28" t="n">
         <f aca="false">IF(C28="","",C28/B28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="26"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="28" t="str">
+        <f aca="false">IF(C29="","",C29/B29)</f>
         <v/>
       </c>
     </row>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1086,9 +1112,9 @@
   <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A26:G26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -483,6 +483,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -491,10 +597,10 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.36"/>
@@ -515,7 +621,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -526,7 +632,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -549,31 +655,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>6</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="10" t="n">
         <f aca="false">IF(C4="","",C4/B4)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -597,31 +703,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F6" s="8" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G6" s="10" t="n">
         <f aca="false">IF(C6="","",C6/B6)</f>
-        <v>0.583333333333333</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -645,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -669,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -693,31 +799,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="9" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G10" s="10" t="n">
         <f aca="false">IF(C10="","",C10/B10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -741,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
@@ -752,7 +858,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
         <v>2</v>
       </c>
@@ -775,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -799,79 +905,79 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" s="15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="15" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F15" s="8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G15" s="16" t="n">
         <f aca="false">IF(C15="","",C15/B15)</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="8" t="n">
-        <v>2</v>
-      </c>
       <c r="E16" s="15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F16" s="8" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G16" s="16" t="n">
         <f aca="false">IF(C16="","",C16/B16)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" s="15" t="n">
         <v>3</v>
       </c>
       <c r="D17" s="8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F17" s="8" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G17" s="16" t="n">
         <f aca="false">IF(C17="","",C17/B17)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
         <v>19</v>
       </c>
@@ -882,7 +988,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
         <v>2</v>
       </c>
@@ -905,7 +1011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
         <v>20</v>
       </c>
@@ -929,7 +1035,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
         <v>14</v>
       </c>
@@ -953,7 +1059,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
         <v>21</v>
       </c>
@@ -977,7 +1083,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
@@ -1001,7 +1107,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20"/>
       <c r="B24" s="8"/>
       <c r="C24" s="21"/>
@@ -1013,7 +1119,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="20"/>
       <c r="B25" s="8"/>
       <c r="C25" s="21"/>
@@ -1025,7 +1131,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
         <v>23</v>
       </c>
@@ -1036,7 +1142,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
         <v>2</v>
       </c>
@@ -1059,7 +1165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="26" t="s">
         <v>25</v>
       </c>
@@ -1083,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="26"/>
       <c r="B29" s="8"/>
       <c r="C29" s="27"/>

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -596,8 +596,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -660,23 +660,23 @@
         <v>9</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="n">
-        <v>6</v>
-      </c>
       <c r="E4" s="9" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G4" s="10" t="n">
         <f aca="false">IF(C4="","",C4/B4)</f>
-        <v>0.571428571428571</v>
+        <v>0.555555555555556</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,23 +708,23 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F6" s="8" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G6" s="10" t="n">
         <f aca="false">IF(C6="","",C6/B6)</f>
-        <v>0.571428571428571</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,19 +804,19 @@
         <v>15</v>
       </c>
       <c r="B10" s="8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" s="9" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G10" s="10" t="n">
         <f aca="false">IF(C10="","",C10/B10)</f>
@@ -910,23 +910,23 @@
         <v>18</v>
       </c>
       <c r="B15" s="8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" s="15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="15" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F15" s="8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G15" s="16" t="n">
         <f aca="false">IF(C15="","",C15/B15)</f>
-        <v>0.6</v>
+        <v>0.583333333333333</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,23 +934,23 @@
         <v>12</v>
       </c>
       <c r="B16" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8" t="n">
         <v>6</v>
-      </c>
-      <c r="C16" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="8" t="n">
-        <v>4</v>
       </c>
       <c r="E16" s="15" t="n">
         <v>8</v>
       </c>
       <c r="F16" s="8" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G16" s="16" t="n">
         <f aca="false">IF(C16="","",C16/B16)</f>
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,23 +958,23 @@
         <v>13</v>
       </c>
       <c r="B17" s="8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C17" s="15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F17" s="8" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G17" s="16" t="n">
         <f aca="false">IF(C17="","",C17/B17)</f>
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,23 +1016,23 @@
         <v>20</v>
       </c>
       <c r="B20" s="8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C20" s="21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" s="8" t="n">
         <v>3</v>
       </c>
       <c r="E20" s="21" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F20" s="8" t="n">
         <v>13</v>
       </c>
       <c r="G20" s="22" t="n">
         <f aca="false">IF(C20="","",C20/B20)</f>
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,23 +1040,23 @@
         <v>14</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" s="21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" s="8" t="n">
         <v>3</v>
       </c>
       <c r="E21" s="21" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F21" s="8" t="n">
         <v>10</v>
       </c>
       <c r="G21" s="22" t="n">
         <f aca="false">IF(C21="","",C21/B21)</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,23 +1064,23 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22" s="21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22" s="21" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F22" s="8" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G22" s="22" t="n">
         <f aca="false">IF(C22="","",C22/B22)</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEGHOS\Documents\GitHub\calendarios-seghos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227ADD42-0938-44B7-AD05-7AE2A0F9B7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99D3261-33E1-4240-BA24-5D2DB67D7D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
-  <si>
-    <t>Ranking de Jugadores del SEGHOS (  Temporada 2025/26)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>División Honor Nacional</t>
   </si>
@@ -123,6 +120,12 @@
   </si>
   <si>
     <t>Diego Arévalo</t>
+  </si>
+  <si>
+    <t>Valle Sanz</t>
+  </si>
+  <si>
+    <t>Ranking de Jugadores del SEGHOS 2025/26 (hasta 20/01/26)</t>
   </si>
 </sst>
 </file>
@@ -296,21 +299,6 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -371,6 +359,21 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,636 +575,659 @@
   </sheetPr>
   <dimension ref="A1:XFC1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="11" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="6" customWidth="1"/>
-    <col min="16384" max="16384" width="11.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="A1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="6">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>53</v>
+      </c>
+      <c r="F4" s="6">
+        <v>46</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" ref="G4:G11" si="0">IF(C4="","",C4/B4)</f>
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11">
-        <v>20</v>
-      </c>
-      <c r="C4" s="12">
-        <v>12</v>
-      </c>
-      <c r="D4" s="11">
-        <v>8</v>
-      </c>
-      <c r="E4" s="12">
-        <v>46</v>
-      </c>
-      <c r="F4" s="11">
-        <v>37</v>
-      </c>
-      <c r="G4" s="13">
-        <f t="shared" ref="G4:G11" si="0">IF(C4="","",C4/B4)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>6</v>
-      </c>
-      <c r="F5" s="11">
-        <v>2</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6">
         <v>11</v>
       </c>
-      <c r="B6" s="11">
-        <v>20</v>
-      </c>
-      <c r="C6" s="12">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12">
-        <v>38</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="E6" s="7">
+        <v>48</v>
+      </c>
+      <c r="F6" s="6">
+        <v>47</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
         <v>42</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>6</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3</v>
+      </c>
+      <c r="E14" s="12">
         <v>12</v>
       </c>
-      <c r="B7" s="11">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>6</v>
-      </c>
-      <c r="G7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>6</v>
-      </c>
-      <c r="G8" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>6</v>
-      </c>
-      <c r="G9" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="F14" s="6">
         <v>15</v>
       </c>
-      <c r="B10" s="11">
-        <v>10</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <v>10</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11">
-        <v>30</v>
-      </c>
-      <c r="G10" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>6</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="11">
-        <v>6</v>
-      </c>
-      <c r="C14" s="17">
-        <v>3</v>
-      </c>
-      <c r="D14" s="11">
-        <v>3</v>
-      </c>
-      <c r="E14" s="17">
-        <v>12</v>
-      </c>
-      <c r="F14" s="11">
-        <v>15</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="G14" s="13">
         <f>IF(C14="","",C14/B14)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="A15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6">
         <v>12</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="12">
         <v>7</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="6">
         <v>5</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="12">
         <v>25</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="6">
         <v>17</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="13">
         <f>IF(C15="","",C15/B15)</f>
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="11">
+      <c r="A16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6">
         <v>8</v>
       </c>
-      <c r="C16" s="17">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11">
-        <v>6</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6</v>
+      </c>
+      <c r="E16" s="12">
         <v>8</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="6">
         <v>19</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="13">
         <f>IF(C16="","",C16/B16)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="11">
+      <c r="A17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6">
         <v>10</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="12">
         <v>4</v>
       </c>
-      <c r="D17" s="11">
-        <v>6</v>
-      </c>
-      <c r="E17" s="17">
+      <c r="D17" s="6">
+        <v>6</v>
+      </c>
+      <c r="E17" s="12">
         <v>16</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="6">
         <v>22</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="13">
         <f>IF(C17="","",C17/B17)</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="6">
+        <v>10</v>
+      </c>
+      <c r="C20" s="17">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="E20" s="17">
+        <v>22</v>
+      </c>
+      <c r="F20" s="6">
+        <v>13</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" ref="G20:G26" si="1">IF(C20="","",C20/B20)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6">
+        <v>8</v>
+      </c>
+      <c r="C21" s="17">
         <v>5</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="11">
+      <c r="D21" s="6">
+        <v>3</v>
+      </c>
+      <c r="E21" s="17">
+        <v>17</v>
+      </c>
+      <c r="F21" s="6">
         <v>10</v>
       </c>
-      <c r="C20" s="22">
-        <v>7</v>
-      </c>
-      <c r="D20" s="11">
-        <v>3</v>
-      </c>
-      <c r="E20" s="22">
-        <v>22</v>
-      </c>
-      <c r="F20" s="11">
-        <v>13</v>
-      </c>
-      <c r="G20" s="23">
-        <f t="shared" ref="G20:G25" si="1">IF(C20="","",C20/B20)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="11">
-        <v>8</v>
-      </c>
-      <c r="C21" s="22">
-        <v>5</v>
-      </c>
-      <c r="D21" s="11">
-        <v>3</v>
-      </c>
-      <c r="E21" s="22">
-        <v>17</v>
-      </c>
-      <c r="F21" s="11">
-        <v>10</v>
-      </c>
-      <c r="G21" s="23">
+      <c r="G21" s="18">
         <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6">
+        <v>14</v>
+      </c>
+      <c r="C22" s="17">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6">
+        <v>9</v>
+      </c>
+      <c r="E22" s="17">
+        <v>26</v>
+      </c>
+      <c r="F22" s="6">
+        <v>28</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="1"/>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="11">
-        <v>12</v>
-      </c>
-      <c r="C22" s="22">
-        <v>5</v>
-      </c>
-      <c r="D22" s="11">
-        <v>7</v>
-      </c>
-      <c r="E22" s="22">
-        <v>24</v>
-      </c>
-      <c r="F22" s="11">
-        <v>22</v>
-      </c>
-      <c r="G22" s="23">
-        <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11">
-        <v>2</v>
-      </c>
-      <c r="C23" s="22">
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="17">
         <v>1</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="6">
         <v>1</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="17">
         <v>3</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="6">
         <v>3</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="18">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="11">
-        <v>2</v>
-      </c>
-      <c r="C24" s="22">
-        <v>2</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0</v>
-      </c>
-      <c r="E24" s="22">
-        <v>6</v>
-      </c>
-      <c r="F24" s="11">
+      <c r="A24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="17">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>6</v>
+      </c>
+      <c r="F24" s="6">
         <v>1</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="6">
+        <v>4</v>
+      </c>
+      <c r="C25" s="17">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2</v>
+      </c>
+      <c r="E25" s="17">
+        <v>7</v>
+      </c>
+      <c r="F25" s="6">
+        <v>8</v>
+      </c>
+      <c r="G25" s="18">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="11">
-        <v>2</v>
-      </c>
-      <c r="C25" s="22">
-        <v>2</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="22">
-        <v>6</v>
-      </c>
-      <c r="F25" s="11">
-        <v>2</v>
-      </c>
-      <c r="G25" s="23">
+      <c r="B26" s="6">
+        <v>2</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>6</v>
+      </c>
+      <c r="G26" s="18">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="8" t="s">
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="22">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="22">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6">
         <v>3</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="11">
-        <v>1</v>
-      </c>
-      <c r="C28" s="27">
-        <v>0</v>
-      </c>
-      <c r="D28" s="11">
-        <v>1</v>
-      </c>
-      <c r="E28" s="27">
-        <v>2</v>
-      </c>
-      <c r="F28" s="11">
-        <v>3</v>
-      </c>
-      <c r="G28" s="28">
-        <f>IF(C28="","",C28/B28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="28" t="str">
+      <c r="G29" s="23">
         <f>IF(C29="","",C29/B29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="23" t="str">
+        <f>IF(C30="","",C30/B30)</f>
         <v/>
       </c>
     </row>
-    <row r="1048564" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="1048565" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="1048566" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="1048567" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1220,7 +1246,7 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:G27"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/m_ranking Seghos 2025_26.xlsx
+++ b/m_ranking Seghos 2025_26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEGHOS\Documents\GitHub\calendarios-seghos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99D3261-33E1-4240-BA24-5D2DB67D7D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EA546D-D3EF-4338-ABD3-87C29CEAB7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>División Honor Nacional</t>
   </si>
@@ -125,7 +125,10 @@
     <t>Valle Sanz</t>
   </si>
   <si>
-    <t>Ranking de Jugadores del SEGHOS 2025/26 (hasta 20/01/26)</t>
+    <t>Xu Liutao</t>
+  </si>
+  <si>
+    <t>Ranking de Jugadores del SEGHOS 2025/26 (hasta 26/01/26)</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
   <dimension ref="A1:XFC1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -591,7 +594,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -639,23 +642,23 @@
         <v>8</v>
       </c>
       <c r="B4" s="6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6">
         <v>11</v>
       </c>
       <c r="E4" s="7">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F4" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" ref="G4:G11" si="0">IF(C4="","",C4/B4)</f>
-        <v>0.54166666666666663</v>
+        <f t="shared" ref="G4:G12" si="0">IF(C4="","",C4/B4)</f>
+        <v>0.57692307692307687</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -687,23 +690,23 @@
         <v>10</v>
       </c>
       <c r="B6" s="6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6">
         <v>11</v>
       </c>
       <c r="E6" s="7">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F6" s="6">
         <v>47</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>0.54166666666666663</v>
+        <v>0.57692307692307687</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -804,431 +807,454 @@
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6">
         <v>2</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="10" t="s">
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6">
-        <v>6</v>
-      </c>
-      <c r="C14" s="12">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6">
-        <v>3</v>
-      </c>
-      <c r="E14" s="12">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6">
-        <v>15</v>
-      </c>
-      <c r="G14" s="13">
-        <f>IF(C14="","",C14/B14)</f>
-        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6">
+        <v>6</v>
+      </c>
+      <c r="C15" s="12">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+      <c r="E15" s="12">
         <v>12</v>
       </c>
-      <c r="C15" s="12">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6">
-        <v>5</v>
-      </c>
-      <c r="E15" s="12">
-        <v>25</v>
-      </c>
       <c r="F15" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G15" s="13">
         <f>IF(C15="","",C15/B15)</f>
-        <v>0.58333333333333337</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C16" s="12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D16" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="12">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F16" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G16" s="13">
         <f>IF(C16="","",C16/B16)</f>
-        <v>0.25</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="6">
         <v>6</v>
       </c>
       <c r="E17" s="12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F17" s="6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G17" s="13">
         <f>IF(C17="","",C17/B17)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>10</v>
+      </c>
+      <c r="C18" s="12">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6">
+        <v>6</v>
+      </c>
+      <c r="E18" s="12">
+        <v>16</v>
+      </c>
+      <c r="F18" s="6">
+        <v>22</v>
+      </c>
+      <c r="G18" s="13">
+        <f>IF(C18="","",C18/B18)</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6">
-        <v>10</v>
-      </c>
-      <c r="C20" s="17">
-        <v>7</v>
-      </c>
-      <c r="D20" s="6">
-        <v>3</v>
-      </c>
-      <c r="E20" s="17">
-        <v>22</v>
-      </c>
-      <c r="F20" s="6">
-        <v>13</v>
-      </c>
-      <c r="G20" s="18">
-        <f t="shared" ref="G20:G26" si="1">IF(C20="","",C20/B20)</f>
-        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C21" s="17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21" s="6">
         <v>3</v>
       </c>
       <c r="E21" s="17">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F21" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G21" s="18">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
+        <f t="shared" ref="G21:G27" si="1">IF(C21="","",C21/B21)</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B22" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C22" s="17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E22" s="17">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F22" s="6">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G22" s="18">
         <f t="shared" si="1"/>
-        <v>0.35714285714285715</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C23" s="17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D23" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E23" s="17">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F23" s="6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G23" s="18">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
       </c>
       <c r="C24" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F24" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="17">
         <v>2</v>
       </c>
       <c r="D25" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G25" s="18">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="6">
         <v>2</v>
       </c>
       <c r="E26" s="17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F26" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G26" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>6</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E29" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="20" t="s">
+      <c r="F29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="6">
-        <v>1</v>
-      </c>
-      <c r="C29" s="22">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="22">
-        <v>2</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="22">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="22">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6">
         <v>3</v>
       </c>
-      <c r="G29" s="23">
-        <f>IF(C29="","",C29/B29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="23" t="str">
+      <c r="G30" s="23">
         <f>IF(C30="","",C30/B30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="23" t="str">
+        <f>IF(C31="","",C31/B31)</f>
         <v/>
       </c>
     </row>
-    <row r="1048565" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="1048566" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="1048567" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="1048568" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1244,9 +1270,9 @@
   <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A28:G28"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
